--- a/Datasets/OODP/OODP_pre-extract.xlsx
+++ b/Datasets/OODP/OODP_pre-extract.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X686"/>
+  <dimension ref="A1:X714"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -47640,6 +47640,1566 @@
       </c>
       <c r="X686" t="inlineStr"/>
     </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="inlineStr"/>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>A modern, compact implementation of the parameterized factory</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr"/>
+      <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>Journal of Object Technology</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
+      <c r="M687" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N687" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O687" t="inlineStr"/>
+      <c r="P687" t="inlineStr"/>
+      <c r="Q687" t="inlineStr"/>
+      <c r="R687" t="n">
+        <v>2</v>
+      </c>
+      <c r="S687" t="inlineStr"/>
+      <c r="T687" t="n">
+        <v>2010</v>
+      </c>
+      <c r="U687" t="inlineStr"/>
+      <c r="V687" t="inlineStr"/>
+      <c r="W687" t="inlineStr">
+        <is>
+          <t>ETH Zurich</t>
+        </is>
+      </c>
+      <c r="X687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="inlineStr"/>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>A study of the data syncrhonization concern in the observer design pattern</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr"/>
+      <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr"/>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>International Conference on Software Technology and Engineering (ICSE)</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="inlineStr"/>
+      <c r="M688" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N688" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O688" t="inlineStr"/>
+      <c r="P688" t="inlineStr"/>
+      <c r="Q688" t="inlineStr"/>
+      <c r="R688" t="n">
+        <v>2</v>
+      </c>
+      <c r="S688" t="inlineStr"/>
+      <c r="T688" t="n">
+        <v>2010</v>
+      </c>
+      <c r="U688" t="inlineStr"/>
+      <c r="V688" t="inlineStr"/>
+      <c r="W688" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="X688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>An Extensible Compiler for Implementing Software Design Patterns as Concise Language Constructs</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr"/>
+      <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr">
+        <is>
+          <t>International Journal of Software Engineering and Knowledge Engineering</t>
+        </is>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="inlineStr"/>
+      <c r="M689" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N689" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O689" t="inlineStr"/>
+      <c r="P689" t="inlineStr"/>
+      <c r="Q689" t="inlineStr"/>
+      <c r="R689" t="n">
+        <v>2</v>
+      </c>
+      <c r="S689" t="inlineStr"/>
+      <c r="T689" t="n">
+        <v>2021</v>
+      </c>
+      <c r="U689" t="inlineStr"/>
+      <c r="V689" t="inlineStr"/>
+      <c r="W689" t="inlineStr">
+        <is>
+          <t>World Scientific Publishing</t>
+        </is>
+      </c>
+      <c r="X689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>Classes as Layers: Rewriting design Patterns with COP: Alternative Implementations of Decorator, Obserer, and Visitor</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr"/>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>International Workshop on Context-Oriented Programming</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="inlineStr"/>
+      <c r="M690" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N690" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O690" t="inlineStr"/>
+      <c r="P690" t="inlineStr"/>
+      <c r="Q690" t="inlineStr"/>
+      <c r="R690" t="n">
+        <v>2</v>
+      </c>
+      <c r="S690" t="inlineStr"/>
+      <c r="T690" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U690" t="inlineStr"/>
+      <c r="V690" t="inlineStr"/>
+      <c r="W690" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>Comparison of applying design patterns for functional and non-functional design elements in Java and AspectJ programs</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr"/>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>International Conference on Advanced Communication Control and Computing Technologies (ICACCCT)</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="inlineStr"/>
+      <c r="M691" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N691" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O691" t="inlineStr"/>
+      <c r="P691" t="inlineStr"/>
+      <c r="Q691" t="inlineStr"/>
+      <c r="R691" t="n">
+        <v>2</v>
+      </c>
+      <c r="S691" t="inlineStr"/>
+      <c r="T691" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U691" t="inlineStr"/>
+      <c r="V691" t="inlineStr"/>
+      <c r="W691" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="X691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>Design pattern builder: a concept for refinable reusable design pattern libraries</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr"/>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>International Conference on Systems, Programming, Languages and Applications: Software for Humanity</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="inlineStr"/>
+      <c r="M692" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N692" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O692" t="inlineStr"/>
+      <c r="P692" t="inlineStr"/>
+      <c r="Q692" t="inlineStr"/>
+      <c r="R692" t="n">
+        <v>2</v>
+      </c>
+      <c r="S692" t="inlineStr"/>
+      <c r="T692" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U692" t="inlineStr"/>
+      <c r="V692" t="inlineStr"/>
+      <c r="W692" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B693" t="inlineStr"/>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>EVF: An Extensible and Expressive Visitor Framework for Programming Language Reuse</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr"/>
+      <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>European Conference on Object-Oriented Programming (ECOOP)</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="inlineStr"/>
+      <c r="M693" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N693" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O693" t="inlineStr"/>
+      <c r="P693" t="inlineStr"/>
+      <c r="Q693" t="inlineStr"/>
+      <c r="R693" t="n">
+        <v>2</v>
+      </c>
+      <c r="S693" t="inlineStr"/>
+      <c r="T693" t="n">
+        <v>2017</v>
+      </c>
+      <c r="U693" t="inlineStr"/>
+      <c r="V693" t="inlineStr"/>
+      <c r="W693" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
+      <c r="X693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B694" t="inlineStr"/>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>Modularizing design patterns with aspects: A quantitative study</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr"/>
+      <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>Lecture Notes in Computer Science</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="inlineStr"/>
+      <c r="M694" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N694" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O694" t="inlineStr"/>
+      <c r="P694" t="inlineStr"/>
+      <c r="Q694" t="inlineStr"/>
+      <c r="R694" t="n">
+        <v>2</v>
+      </c>
+      <c r="S694" t="inlineStr"/>
+      <c r="T694" t="n">
+        <v>2006</v>
+      </c>
+      <c r="U694" t="inlineStr"/>
+      <c r="V694" t="inlineStr"/>
+      <c r="W694" t="inlineStr">
+        <is>
+          <t>Springer Verlag</t>
+        </is>
+      </c>
+      <c r="X694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B695" t="inlineStr"/>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>The observer pattern using aspect oriented programming</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr"/>
+      <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nordic Conference on Pattern Languages of Programs (Viking PLoP) </t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
+      <c r="M695" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N695" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O695" t="inlineStr"/>
+      <c r="P695" t="inlineStr"/>
+      <c r="Q695" t="inlineStr"/>
+      <c r="R695" t="n">
+        <v>2</v>
+      </c>
+      <c r="S695" t="inlineStr"/>
+      <c r="T695" t="n">
+        <v>2003</v>
+      </c>
+      <c r="U695" t="inlineStr"/>
+      <c r="V695" t="inlineStr"/>
+      <c r="W695" t="inlineStr"/>
+      <c r="X695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B696" t="inlineStr"/>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>Reflective Visitor Pattern</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr"/>
+      <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>European Conference on Pattern Languages of Programs (EuroPLoP)</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="inlineStr"/>
+      <c r="M696" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N696" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O696" t="inlineStr"/>
+      <c r="P696" t="inlineStr"/>
+      <c r="Q696" t="inlineStr"/>
+      <c r="R696" t="n">
+        <v>2</v>
+      </c>
+      <c r="S696" t="inlineStr"/>
+      <c r="T696" t="n">
+        <v>2001</v>
+      </c>
+      <c r="U696" t="inlineStr"/>
+      <c r="V696" t="inlineStr"/>
+      <c r="W696" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>The visitor pattern as a reusable, generic, type-safe component</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>OOPSLA</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="inlineStr"/>
+      <c r="M697" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N697" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O697" t="inlineStr"/>
+      <c r="P697" t="inlineStr"/>
+      <c r="Q697" t="inlineStr"/>
+      <c r="R697" t="n">
+        <v>2</v>
+      </c>
+      <c r="S697" t="inlineStr"/>
+      <c r="T697" t="n">
+        <v>2008</v>
+      </c>
+      <c r="U697" t="inlineStr"/>
+      <c r="V697" t="inlineStr"/>
+      <c r="W697" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>Using dynamic mixins to implement design patterns</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>European Conference on Pattern Languages of Programs (EuroPLoP)</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="inlineStr"/>
+      <c r="M698" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N698" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O698" t="inlineStr"/>
+      <c r="P698" t="inlineStr"/>
+      <c r="Q698" t="inlineStr"/>
+      <c r="R698" t="n">
+        <v>2</v>
+      </c>
+      <c r="S698" t="inlineStr"/>
+      <c r="T698" t="n">
+        <v>2014</v>
+      </c>
+      <c r="U698" t="inlineStr"/>
+      <c r="V698" t="inlineStr"/>
+      <c r="W698" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>A Multiparadigm Study of Crosscutting Modularity in Design Patterns</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>International Conference on Objects, Components, Models and Patterns</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="inlineStr"/>
+      <c r="M699" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N699" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O699" t="inlineStr"/>
+      <c r="P699" t="inlineStr"/>
+      <c r="Q699" t="inlineStr"/>
+      <c r="R699" t="n">
+        <v>2</v>
+      </c>
+      <c r="S699" t="inlineStr"/>
+      <c r="T699" t="n">
+        <v>2008</v>
+      </c>
+      <c r="U699" t="inlineStr"/>
+      <c r="V699" t="inlineStr"/>
+      <c r="W699" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
+      <c r="X699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>A reusable observer pattern implementation using package templates</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>Workshop on Aspects, components, and patterns for infrastructure software (ACP4IS)</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="inlineStr"/>
+      <c r="M700" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N700" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O700" t="inlineStr"/>
+      <c r="P700" t="inlineStr"/>
+      <c r="Q700" t="inlineStr"/>
+      <c r="R700" t="n">
+        <v>2</v>
+      </c>
+      <c r="S700" t="inlineStr"/>
+      <c r="T700" t="n">
+        <v>2008</v>
+      </c>
+      <c r="U700" t="inlineStr"/>
+      <c r="V700" t="inlineStr"/>
+      <c r="W700" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B701" t="inlineStr"/>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>AODP: refactoring code to provide advanced aspect-oriented modularization of design patterns</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr"/>
+      <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>Symposium on Applied Computing (SAC)</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="inlineStr"/>
+      <c r="M701" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N701" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O701" t="inlineStr"/>
+      <c r="P701" t="inlineStr"/>
+      <c r="Q701" t="inlineStr"/>
+      <c r="R701" t="n">
+        <v>2</v>
+      </c>
+      <c r="S701" t="inlineStr"/>
+      <c r="T701" t="n">
+        <v>2012</v>
+      </c>
+      <c r="U701" t="inlineStr"/>
+      <c r="V701" t="inlineStr"/>
+      <c r="W701" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B702" t="inlineStr"/>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>Aspect oriented GoF design patterns</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr"/>
+      <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>International Conference on Informatics and Systems (INFOS)</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="inlineStr"/>
+      <c r="M702" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N702" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O702" t="inlineStr"/>
+      <c r="P702" t="inlineStr"/>
+      <c r="Q702" t="inlineStr"/>
+      <c r="R702" t="n">
+        <v>2</v>
+      </c>
+      <c r="S702" t="inlineStr"/>
+      <c r="T702" t="n">
+        <v>2010</v>
+      </c>
+      <c r="U702" t="inlineStr"/>
+      <c r="V702" t="inlineStr"/>
+      <c r="W702" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="X702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B703" t="inlineStr"/>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>Blending design patterns with aspects: A quantitative study</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr"/>
+      <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr"/>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>Journal of Systems and Software</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="inlineStr"/>
+      <c r="M703" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N703" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O703" t="inlineStr"/>
+      <c r="P703" t="inlineStr"/>
+      <c r="Q703" t="inlineStr"/>
+      <c r="R703" t="n">
+        <v>2</v>
+      </c>
+      <c r="S703" t="inlineStr"/>
+      <c r="T703" t="n">
+        <v>2014</v>
+      </c>
+      <c r="U703" t="inlineStr"/>
+      <c r="V703" t="inlineStr"/>
+      <c r="W703" t="inlineStr">
+        <is>
+          <t>Elsevier</t>
+        </is>
+      </c>
+      <c r="X703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B704" t="inlineStr"/>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>Design patterns as higher-order datatype-generic programs</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr"/>
+      <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>Workshop on Generic Programming (WGP)</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
+      <c r="M704" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N704" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O704" t="inlineStr"/>
+      <c r="P704" t="inlineStr"/>
+      <c r="Q704" t="inlineStr"/>
+      <c r="R704" t="n">
+        <v>2</v>
+      </c>
+      <c r="S704" t="inlineStr"/>
+      <c r="T704" t="n">
+        <v>2006</v>
+      </c>
+      <c r="U704" t="inlineStr"/>
+      <c r="V704" t="inlineStr"/>
+      <c r="W704" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>Design Patterns with Aspects: A case study</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>European Conference on Pattern Languages of Programs (EuroPLoP)</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="inlineStr"/>
+      <c r="M705" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N705" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O705" t="inlineStr"/>
+      <c r="P705" t="inlineStr"/>
+      <c r="Q705" t="inlineStr"/>
+      <c r="R705" t="n">
+        <v>2</v>
+      </c>
+      <c r="S705" t="inlineStr"/>
+      <c r="T705" t="n">
+        <v>2007</v>
+      </c>
+      <c r="U705" t="inlineStr"/>
+      <c r="V705" t="inlineStr"/>
+      <c r="W705" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>Extended Design Patterns in New Object-Oriented Programming Languages</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>Software Engineering and Knowledge Engineering (SEKE)</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="inlineStr"/>
+      <c r="M706" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N706" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O706" t="inlineStr"/>
+      <c r="P706" t="inlineStr"/>
+      <c r="Q706" t="inlineStr"/>
+      <c r="R706" t="n">
+        <v>2</v>
+      </c>
+      <c r="S706" t="inlineStr"/>
+      <c r="T706" t="n">
+        <v>2013</v>
+      </c>
+      <c r="U706" t="inlineStr"/>
+      <c r="V706" t="inlineStr"/>
+      <c r="W706" t="inlineStr">
+        <is>
+          <t>Knowledge Systems Institute Graduate School</t>
+        </is>
+      </c>
+      <c r="X706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>Improving Design Pattern Quality Using Aspect Orientation</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>Software Technology and Engineering Practice (STEP)</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
+      <c r="M707" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N707" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O707" t="inlineStr"/>
+      <c r="P707" t="inlineStr"/>
+      <c r="Q707" t="inlineStr"/>
+      <c r="R707" t="n">
+        <v>2</v>
+      </c>
+      <c r="S707" t="inlineStr"/>
+      <c r="T707" t="n">
+        <v>2005</v>
+      </c>
+      <c r="U707" t="inlineStr"/>
+      <c r="V707" t="inlineStr"/>
+      <c r="W707" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="X707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>Replacing Object-Oriented Design Patterns with Intrinsic Aspect-Oriented Design Patterns</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr"/>
+      <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr">
+        <is>
+          <t>Second Eastern European Regional Conference on the Engineering of Computer Based Systems</t>
+        </is>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="inlineStr"/>
+      <c r="M708" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N708" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O708" t="inlineStr"/>
+      <c r="P708" t="inlineStr"/>
+      <c r="Q708" t="inlineStr"/>
+      <c r="R708" t="n">
+        <v>2</v>
+      </c>
+      <c r="S708" t="inlineStr"/>
+      <c r="T708" t="n">
+        <v>2011</v>
+      </c>
+      <c r="U708" t="inlineStr"/>
+      <c r="V708" t="inlineStr"/>
+      <c r="W708" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="X708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B709" t="inlineStr"/>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>Synthesizing object-oriented and functional design to promote re-use</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr"/>
+      <c r="F709" t="inlineStr"/>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>European Conference on Object-Oriented Programming (ECOOP)</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="inlineStr"/>
+      <c r="M709" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N709" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O709" t="inlineStr"/>
+      <c r="P709" t="inlineStr"/>
+      <c r="Q709" t="inlineStr"/>
+      <c r="R709" t="n">
+        <v>2</v>
+      </c>
+      <c r="S709" t="inlineStr"/>
+      <c r="T709" t="n">
+        <v>1998</v>
+      </c>
+      <c r="U709" t="inlineStr"/>
+      <c r="V709" t="inlineStr"/>
+      <c r="W709" t="inlineStr">
+        <is>
+          <t>Springer</t>
+        </is>
+      </c>
+      <c r="X709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B710" t="inlineStr"/>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>Towards Easier Implementation of Design Pattern</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr"/>
+      <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>International Conference on Software Engineering Advances (ICSEA)</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="inlineStr"/>
+      <c r="M710" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N710" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O710" t="inlineStr"/>
+      <c r="P710" t="inlineStr"/>
+      <c r="Q710" t="inlineStr"/>
+      <c r="R710" t="n">
+        <v>2</v>
+      </c>
+      <c r="S710" t="inlineStr"/>
+      <c r="T710" t="n">
+        <v>2016</v>
+      </c>
+      <c r="U710" t="inlineStr"/>
+      <c r="V710" t="inlineStr"/>
+      <c r="W710" t="inlineStr">
+        <is>
+          <t>International Academy, Research, and Industry Association</t>
+        </is>
+      </c>
+      <c r="X710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>Using Aspect-Oriented Programming for Design Patterns Implementation</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr"/>
+      <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr">
+        <is>
+          <t>Workshop on Reuse in Object-Oriented Information Systems Design</t>
+        </is>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="inlineStr"/>
+      <c r="M711" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N711" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O711" t="inlineStr"/>
+      <c r="P711" t="inlineStr"/>
+      <c r="Q711" t="inlineStr"/>
+      <c r="R711" t="n">
+        <v>2</v>
+      </c>
+      <c r="S711" t="inlineStr"/>
+      <c r="T711" t="n">
+        <v>2002</v>
+      </c>
+      <c r="U711" t="inlineStr"/>
+      <c r="V711" t="inlineStr"/>
+      <c r="W711" t="inlineStr"/>
+      <c r="X711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>Using aspects and annotations to separate application code from design patterns</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr"/>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>Symposium on Applied Computing (SAC)</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="inlineStr"/>
+      <c r="M712" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N712" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O712" t="inlineStr"/>
+      <c r="P712" t="inlineStr"/>
+      <c r="Q712" t="inlineStr"/>
+      <c r="R712" t="n">
+        <v>2</v>
+      </c>
+      <c r="S712" t="inlineStr"/>
+      <c r="T712" t="n">
+        <v>2010</v>
+      </c>
+      <c r="U712" t="inlineStr"/>
+      <c r="V712" t="inlineStr"/>
+      <c r="W712" t="inlineStr">
+        <is>
+          <t>ACM</t>
+        </is>
+      </c>
+      <c r="X712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>Visitor Design Pattern Using Reflection Mechanism</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr"/>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>International Journal of Software Innovation</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="inlineStr"/>
+      <c r="M713" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N713" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O713" t="inlineStr"/>
+      <c r="P713" t="inlineStr"/>
+      <c r="Q713" t="inlineStr"/>
+      <c r="R713" t="n">
+        <v>2</v>
+      </c>
+      <c r="S713" t="inlineStr"/>
+      <c r="T713" t="n">
+        <v>2020</v>
+      </c>
+      <c r="U713" t="inlineStr"/>
+      <c r="V713" t="inlineStr"/>
+      <c r="W713" t="inlineStr">
+        <is>
+          <t>IGI Global</t>
+        </is>
+      </c>
+      <c r="X713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>OODP</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>A novel implementation of observer pattern by aspect based on Java annotation</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>International Conference on Computer Science and Information Technology (CSIT)</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="inlineStr"/>
+      <c r="M714" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="N714" t="inlineStr">
+        <is>
+          <t>Included</t>
+        </is>
+      </c>
+      <c r="O714" t="inlineStr"/>
+      <c r="P714" t="inlineStr"/>
+      <c r="Q714" t="inlineStr"/>
+      <c r="R714" t="n">
+        <v>2</v>
+      </c>
+      <c r="S714" t="inlineStr"/>
+      <c r="T714" t="n">
+        <v>2010</v>
+      </c>
+      <c r="U714" t="inlineStr"/>
+      <c r="V714" t="inlineStr"/>
+      <c r="W714" t="inlineStr">
+        <is>
+          <t>IEEE</t>
+        </is>
+      </c>
+      <c r="X714" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
